--- a/Project_PSSMs/Project_2/Fixed_Residue_PSSM/1_P_EP.xlsx
+++ b/Project_PSSMs/Project_2/Fixed_Residue_PSSM/1_P_EP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5015035550417335</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K2" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5055934629149176</v>
+        <v>0.8514969533240468</v>
       </c>
       <c r="J3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K3" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4227293079955098</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1625088850922794</v>
+        <v>1.764146564639145</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F4" t="n">
-        <v>3.953861870353472</v>
+        <v>3.685821837315178</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H4" t="n">
-        <v>1.995686839278678</v>
+        <v>1.81564921395372</v>
       </c>
       <c r="I4" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J4" t="n">
-        <v>2.742080426565559</v>
+        <v>2.512827552082161</v>
       </c>
       <c r="K4" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222856528797975</v>
+        <v>4.321902916743732</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G5" t="n">
-        <v>3.51854360037865</v>
+        <v>3.25429788017431</v>
       </c>
       <c r="H5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K5" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K6" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="7">
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.230181535719419</v>
+        <v>2.894748942750159</v>
       </c>
       <c r="C7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K7" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E8" t="n">
-        <v>1.521420969216037</v>
+        <v>1.840431087544417</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K8" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="9">
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.408184733376062</v>
+        <v>3.651054460154551</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K9" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4099415620722481</v>
+        <v>0.7951842509482159</v>
       </c>
       <c r="J10" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K10" t="n">
-        <v>2.016775200963107</v>
+        <v>2.253578326660847</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E11" t="n">
-        <v>2.275672416328134</v>
+        <v>1.947789735200385</v>
       </c>
       <c r="F11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G11" t="n">
-        <v>1.507595904967236</v>
+        <v>1.955736940690373</v>
       </c>
       <c r="H11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K11" t="n">
-        <v>1.368566499128826</v>
+        <v>1.508739995165169</v>
       </c>
     </row>
     <row r="12">
@@ -842,34 +842,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K12" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="13">
@@ -879,34 +879,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E13" t="n">
-        <v>1.950883068632152</v>
+        <v>1.863192676610178</v>
       </c>
       <c r="F13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I13" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J13" t="n">
-        <v>1.011146797274838</v>
+        <v>1.139718443688061</v>
       </c>
       <c r="K13" t="n">
-        <v>2.672005684148454</v>
+        <v>2.378506526498993</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D14" t="n">
-        <v>1.108131650077568</v>
+        <v>1.405274597823634</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J14" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K14" t="n">
-        <v>1.769093756712458</v>
+        <v>1.769131559563189</v>
       </c>
     </row>
     <row r="15">
@@ -953,34 +953,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3982682855750697</v>
+        <v>0.7586822631344369</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K15" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="16">
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="I16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J16" t="n">
-        <v>2.098745537524369</v>
+        <v>2.051294892257054</v>
       </c>
       <c r="K16" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="17">
@@ -1027,34 +1027,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3793792076813743</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2722281082051289</v>
+        <v>1.033932539431976</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F17" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G17" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H17" t="n">
-        <v>2.129876897572254</v>
+        <v>2.06883616902181</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2637752646934405</v>
+        <v>0.6641738833969648</v>
       </c>
       <c r="J17" t="n">
-        <v>1.834133247034802</v>
+        <v>1.978915876168003</v>
       </c>
       <c r="K17" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="18">
@@ -1064,34 +1064,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H18" t="n">
-        <v>2.094790163434186</v>
+        <v>2.007540263930589</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3327226113207084</v>
+        <v>0.4046841148345513</v>
       </c>
       <c r="J18" t="n">
-        <v>1.784582777862625</v>
+        <v>2.000801495425572</v>
       </c>
       <c r="K18" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D19" t="n">
-        <v>2.923352209098494</v>
+        <v>1.937862942728536</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H19" t="n">
-        <v>1.71851436981918</v>
+        <v>1.825403730745636</v>
       </c>
       <c r="I19" t="n">
-        <v>1.46020172922145</v>
+        <v>1.413058350177869</v>
       </c>
       <c r="J19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K19" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
     <row r="20">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C20" t="n">
-        <v>3.249687619713945</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D20" t="n">
-        <v>2.916899729335178</v>
+        <v>2.674327631860859</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="F20" t="n">
-        <v>2.17107018726263</v>
+        <v>2.834048709668738</v>
       </c>
       <c r="G20" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="H20" t="n">
-        <v>1.026609481103872</v>
+        <v>1.209454081928172</v>
       </c>
       <c r="I20" t="n">
-        <v>3.64449365531223</v>
+        <v>3.444746710189647</v>
       </c>
       <c r="J20" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K20" t="n">
-        <v>1.843790643188721</v>
+        <v>1.917240818862911</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="C21" t="n">
-        <v>2.715494004998639</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="E21" t="n">
-        <v>3.073974860366239</v>
+        <v>3.157461994049395</v>
       </c>
       <c r="F21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="G21" t="n">
-        <v>2.510090032881572</v>
+        <v>2.717760084750838</v>
       </c>
       <c r="H21" t="n">
-        <v>1.025227189803921</v>
+        <v>1.266971362008894</v>
       </c>
       <c r="I21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="J21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
       <c r="K21" t="n">
-        <v>-19.83129332503361</v>
+        <v>-15.73224693708785</v>
       </c>
     </row>
   </sheetData>
